--- a/data/Excel/MLT_Esports_and_Reckoning_Esports_stats.xlsx
+++ b/data/Excel/MLT_Esports_and_Reckoning_Esports_stats.xlsx
@@ -472,32 +472,32 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
+          <t>Bind</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
           <t>Breeze</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>Icebox</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>Lotus</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
         <is>
           <t>Split</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="O3" s="1" t="inlineStr">
         <is>
           <t>Sunset</t>
-        </is>
-      </c>
-      <c r="M3" s="1" t="inlineStr">
-        <is>
-          <t>Bind</t>
-        </is>
-      </c>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>Lotus</t>
         </is>
       </c>
     </row>
@@ -625,28 +625,28 @@
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="N5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -691,28 +691,28 @@
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="N6" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P6" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -726,27 +726,47 @@
           <t>traNz</t>
         </is>
       </c>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
-      <c r="E7" s="3" t="n"/>
-      <c r="F7" s="3" t="n"/>
-      <c r="G7" s="3" t="n"/>
-      <c r="H7" s="3" t="n"/>
-      <c r="I7" s="3" t="n"/>
-      <c r="J7" s="3" t="n"/>
-      <c r="K7" s="3" t="n"/>
-      <c r="L7" s="3" t="n"/>
+      <c r="C7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="M7" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P7" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -791,28 +811,28 @@
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="N8" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P8" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -857,28 +877,28 @@
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -934,29 +954,29 @@
       </c>
       <c r="K10" s="3" t="inlineStr">
         <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="L10" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M10" s="3" t="inlineStr">
+        <is>
           <t>0.86</t>
         </is>
       </c>
-      <c r="L10" s="3" t="inlineStr">
+      <c r="N10" s="3" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="M10" s="3" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="N10" s="3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="O10" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -981,16 +1001,16 @@
         </is>
       </c>
       <c r="E11" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
@@ -1002,21 +1022,21 @@
           <t>40</t>
         </is>
       </c>
-      <c r="K11" s="3" t="inlineStr">
+      <c r="K11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3" t="inlineStr">
         <is>
           <t>0.83</t>
         </is>
       </c>
-      <c r="L11" s="3" t="inlineStr">
+      <c r="N11" s="3" t="inlineStr">
         <is>
           <t>23</t>
         </is>
-      </c>
-      <c r="M11" s="3" t="n">
-        <v/>
-      </c>
-      <c r="N11" s="3" t="n">
-        <v/>
       </c>
       <c r="O11" s="3" t="inlineStr">
         <is>
@@ -1051,16 +1071,16 @@
         </is>
       </c>
       <c r="E12" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="G12" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
@@ -1072,21 +1092,21 @@
           <t>40</t>
         </is>
       </c>
-      <c r="K12" s="3" t="inlineStr">
+      <c r="K12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3" t="inlineStr">
         <is>
           <t>0.65</t>
         </is>
       </c>
-      <c r="L12" s="3" t="inlineStr">
+      <c r="N12" s="3" t="inlineStr">
         <is>
           <t>23</t>
         </is>
-      </c>
-      <c r="M12" s="3" t="n">
-        <v/>
-      </c>
-      <c r="N12" s="3" t="n">
-        <v/>
       </c>
       <c r="O12" s="3" t="inlineStr">
         <is>
@@ -1121,16 +1141,16 @@
         </is>
       </c>
       <c r="E13" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="G13" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
@@ -1142,21 +1162,21 @@
           <t>40</t>
         </is>
       </c>
-      <c r="K13" s="3" t="inlineStr">
+      <c r="K13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3" t="inlineStr">
         <is>
           <t>0.48</t>
         </is>
       </c>
-      <c r="L13" s="3" t="inlineStr">
+      <c r="N13" s="3" t="inlineStr">
         <is>
           <t>23</t>
         </is>
-      </c>
-      <c r="M13" s="3" t="n">
-        <v/>
-      </c>
-      <c r="N13" s="3" t="n">
-        <v/>
       </c>
       <c r="O13" s="3" t="inlineStr">
         <is>
@@ -1191,16 +1211,16 @@
         </is>
       </c>
       <c r="E14" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
@@ -1212,21 +1232,21 @@
           <t>40</t>
         </is>
       </c>
-      <c r="K14" s="3" t="inlineStr">
+      <c r="K14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="inlineStr">
         <is>
           <t>0.87</t>
         </is>
       </c>
-      <c r="L14" s="3" t="inlineStr">
+      <c r="N14" s="3" t="inlineStr">
         <is>
           <t>23</t>
         </is>
-      </c>
-      <c r="M14" s="3" t="n">
-        <v/>
-      </c>
-      <c r="N14" s="3" t="n">
-        <v/>
       </c>
       <c r="O14" s="3" t="inlineStr">
         <is>
@@ -1261,16 +1281,16 @@
         </is>
       </c>
       <c r="E15" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="G15" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
@@ -1282,21 +1302,21 @@
           <t>40</t>
         </is>
       </c>
-      <c r="K15" s="3" t="inlineStr">
+      <c r="K15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="inlineStr">
         <is>
           <t>0.43</t>
         </is>
       </c>
-      <c r="L15" s="3" t="inlineStr">
+      <c r="N15" s="3" t="inlineStr">
         <is>
           <t>23</t>
         </is>
-      </c>
-      <c r="M15" s="3" t="n">
-        <v/>
-      </c>
-      <c r="N15" s="3" t="n">
-        <v/>
       </c>
       <c r="O15" s="3" t="inlineStr">
         <is>
